--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2082276.95604067</v>
+        <v>2027325.066756573</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013175</v>
+        <v>408938.3872013174</v>
       </c>
     </row>
     <row r="8">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>350.5349292099475</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.7134668821566</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -1457,19 +1457,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>22.26957780739536</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.59641470936502</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>52.4285771158712</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>76.5351950996143</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>279.3999299050921</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>104.0024271027442</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>130.2646119085753</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>139.7210657718665</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S15" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>76.53519509961436</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>76.53519509961431</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>311.3706332107398</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>142.0125328254717</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>45.69653113976709</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>86.89603752886883</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>15.71916615484844</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>137.4545982671965</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2101074720032343</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>207.0716324031976</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>30.72297675820935</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>38.44565182184095</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>55.41966255544313</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S21" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
         <v>237.1773944157285</v>
@@ -2228,7 +2228,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>131.0804113283488</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>73.35340349906471</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>151.9453319227022</v>
       </c>
       <c r="V23" t="n">
-        <v>35.73043473151306</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2405,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>117.6320838744866</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>106.0609360387726</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>131.0804113283489</v>
+        <v>8.916258666857022</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>218.5797582054724</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.0353723969745</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>142.6040487045112</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -2636,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>3.329915919761908</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>90.25939133588676</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>177.283526739121</v>
@@ -2693,10 +2693,10 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>123.1434003800102</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>80.39631948615272</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>88.9452367198999</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>204.7418097272723</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>237.1773944157285</v>
@@ -2933,13 +2933,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>144.8407193933337</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>65.94553550931469</v>
       </c>
     </row>
     <row r="31">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2994,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>2.474840865017248</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>158.6107100818745</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>330.5907110005574</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>240.4660086744121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>237.1773944157285</v>
@@ -3173,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>8.373183778873766</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>187.3000098312551</v>
       </c>
     </row>
     <row r="34">
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>52.42857711587125</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>50.0001043529487</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
         <v>194.7117974622146</v>
@@ -3325,16 +3325,16 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>4.216722594182776</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>315.7221018700144</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>185.6209561932438</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>14.32501013152857</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.916258666857136</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6213336334641</v>
+        <v>137.4545982671964</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.549261568212823</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>119.7132633034008</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -3584,25 +3584,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>3.727105734424095</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>115.3415601084909</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3641,13 +3641,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>158.6107100818746</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>76.53519509961447</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>188.9625998440373</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>219.1383938082316</v>
       </c>
       <c r="H41" t="n">
         <v>332.2779548450047</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>143.4660897532004</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -3833,13 +3833,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>147.9743432409925</v>
+        <v>129.1657165218978</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>54.89828378116018</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>16.9345688696496</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>269.0562111640181</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>317.8499055108099</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -4073,10 +4073,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
-        <v>38.04813570318131</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>177.283526739121</v>
@@ -4112,19 +4112,19 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>119.5136335667968</v>
       </c>
     </row>
     <row r="46">
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>137.4545982671966</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>52.42857711587136</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>988.2760455058774</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="C11" t="n">
-        <v>988.2760455058774</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="D11" t="n">
-        <v>988.2760455058774</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="E11" t="n">
-        <v>628.9695133016787</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="F11" t="n">
-        <v>221.6975439683318</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G11" t="n">
-        <v>221.6975439683318</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K11" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L11" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292784</v>
       </c>
       <c r="N11" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O11" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P11" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q11" t="n">
         <v>1715.732642722258</v>
@@ -5068,25 +5068,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S11" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T11" t="n">
-        <v>1715.732642722258</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U11" t="n">
-        <v>1715.732642722258</v>
+        <v>1048.145630292934</v>
       </c>
       <c r="V11" t="n">
-        <v>1715.732642722258</v>
+        <v>724.0246367483363</v>
       </c>
       <c r="W11" t="n">
-        <v>1374.423083302291</v>
+        <v>724.0246367483363</v>
       </c>
       <c r="X11" t="n">
-        <v>1374.423083302291</v>
+        <v>724.0246367483363</v>
       </c>
       <c r="Y11" t="n">
-        <v>988.2760455058774</v>
+        <v>724.0246367483363</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>611.19376440014</v>
+        <v>716.8983162577389</v>
       </c>
       <c r="C12" t="n">
-        <v>421.7814901331037</v>
+        <v>527.4860419907026</v>
       </c>
       <c r="D12" t="n">
-        <v>261.0013738941354</v>
+        <v>366.7059257517343</v>
       </c>
       <c r="E12" t="n">
-        <v>261.0013738941354</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="F12" t="n">
-        <v>100.5736576113795</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="G12" t="n">
-        <v>100.5736576113795</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H12" t="n">
-        <v>100.5736576113795</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I12" t="n">
         <v>34.31465285444516</v>
@@ -5126,46 +5126,46 @@
         <v>215.5091216889814</v>
       </c>
       <c r="L12" t="n">
-        <v>304.6946924676438</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207054</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.820066520716</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O12" t="n">
-        <v>1395.95310056761</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.19346494006</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q12" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R12" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S12" t="n">
         <v>1448.884598007117</v>
       </c>
       <c r="T12" t="n">
-        <v>1234.878304775051</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U12" t="n">
-        <v>1234.878304775051</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="V12" t="n">
-        <v>1234.878304775051</v>
+        <v>1205.804879910751</v>
       </c>
       <c r="W12" t="n">
-        <v>1234.878304775051</v>
+        <v>936.4063106410425</v>
       </c>
       <c r="X12" t="n">
-        <v>1015.370310391748</v>
+        <v>716.8983162577389</v>
       </c>
       <c r="Y12" t="n">
-        <v>789.7296173270752</v>
+        <v>716.8983162577389</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I13" t="n">
         <v>34.31465285444516</v>
@@ -5202,7 +5202,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K13" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514571</v>
       </c>
       <c r="L13" t="n">
         <v>105.4471208306432</v>
@@ -5229,22 +5229,22 @@
         <v>334.857675380022</v>
       </c>
       <c r="T13" t="n">
-        <v>334.857675380022</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="U13" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1050.584219631687</v>
+        <v>670.2797309213855</v>
       </c>
       <c r="C14" t="n">
-        <v>1050.584219631687</v>
+        <v>316.5368042737301</v>
       </c>
       <c r="D14" t="n">
-        <v>1050.584219631687</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E14" t="n">
-        <v>1050.584219631687</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F14" t="n">
-        <v>643.3122502983404</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I14" t="n">
         <v>34.31465285444516</v>
@@ -5281,10 +5281,10 @@
         <v>79.26440887602962</v>
       </c>
       <c r="K14" t="n">
-        <v>253.8975067193748</v>
+        <v>253.8975067193746</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389717</v>
+        <v>525.5283691389716</v>
       </c>
       <c r="M14" t="n">
         <v>856.6460009292775</v>
@@ -5296,7 +5296,7 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P14" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q14" t="n">
         <v>1715.732642722258</v>
@@ -5308,22 +5308,22 @@
         <v>1519.054059427092</v>
       </c>
       <c r="T14" t="n">
-        <v>1519.054059427092</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U14" t="n">
-        <v>1519.054059427092</v>
+        <v>1048.145630292934</v>
       </c>
       <c r="V14" t="n">
-        <v>1414.001102757653</v>
+        <v>1048.145630292934</v>
       </c>
       <c r="W14" t="n">
-        <v>1414.001102757653</v>
+        <v>1048.145630292934</v>
       </c>
       <c r="X14" t="n">
-        <v>1050.584219631687</v>
+        <v>1048.145630292934</v>
       </c>
       <c r="Y14" t="n">
-        <v>1050.584219631687</v>
+        <v>1048.145630292934</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>339.4582728022987</v>
+        <v>875.9074544020451</v>
       </c>
       <c r="C15" t="n">
-        <v>339.4582728022987</v>
+        <v>686.4951801350088</v>
       </c>
       <c r="D15" t="n">
-        <v>207.8778567330307</v>
+        <v>686.4951801350088</v>
       </c>
       <c r="E15" t="n">
-        <v>34.31465285444516</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F15" t="n">
-        <v>34.31465285444516</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G15" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H15" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I15" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K15" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L15" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M15" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O15" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P15" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q15" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S15" t="n">
-        <v>1536.658373288802</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T15" t="n">
-        <v>1536.658373288802</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="U15" t="n">
-        <v>1297.085247616349</v>
+        <v>1388.38574176812</v>
       </c>
       <c r="V15" t="n">
-        <v>1054.005529519983</v>
+        <v>1145.306023671754</v>
       </c>
       <c r="W15" t="n">
-        <v>784.6069602502747</v>
+        <v>875.9074544020451</v>
       </c>
       <c r="X15" t="n">
-        <v>565.0989658669711</v>
+        <v>875.9074544020451</v>
       </c>
       <c r="Y15" t="n">
-        <v>339.4582728022987</v>
+        <v>875.9074544020451</v>
       </c>
     </row>
     <row r="16">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="C16" t="n">
         <v>34.31465285444516</v>
@@ -5439,31 +5439,31 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L16" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M16" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N16" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P16" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q16" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R16" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S16" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T16" t="n">
         <v>111.6229307328435</v>
@@ -5478,10 +5478,10 @@
         <v>111.6229307328435</v>
       </c>
       <c r="X16" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>745.1801749823653</v>
+        <v>756.1024133097516</v>
       </c>
       <c r="C17" t="n">
-        <v>745.1801749823653</v>
+        <v>756.1024133097516</v>
       </c>
       <c r="D17" t="n">
-        <v>745.1801749823653</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="E17" t="n">
-        <v>369.9489506776823</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F17" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G17" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H17" t="n">
         <v>34.31465285444516</v>
@@ -5515,25 +5515,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602962</v>
+        <v>79.26440887602993</v>
       </c>
       <c r="K17" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L17" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M17" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N17" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O17" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P17" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q17" t="n">
         <v>1715.732642722258</v>
@@ -5542,25 +5542,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S17" t="n">
-        <v>1519.054059427092</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T17" t="n">
-        <v>1519.054059427092</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U17" t="n">
-        <v>1266.493077207926</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="V17" t="n">
-        <v>1123.046074353914</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="W17" t="n">
-        <v>1123.046074353914</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="X17" t="n">
-        <v>1123.046074353914</v>
+        <v>1133.9683126813</v>
       </c>
       <c r="Y17" t="n">
-        <v>1123.046074353914</v>
+        <v>1133.9683126813</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>504.9915189529295</v>
+        <v>503.9983793922312</v>
       </c>
       <c r="C18" t="n">
-        <v>504.9915189529295</v>
+        <v>314.5861051251949</v>
       </c>
       <c r="D18" t="n">
-        <v>344.2114027139612</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="E18" t="n">
-        <v>344.2114027139612</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="F18" t="n">
-        <v>183.7836864312053</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="G18" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H18" t="n">
         <v>34.31465285444516</v>
@@ -5597,49 +5597,49 @@
         <v>54.4093011102587</v>
       </c>
       <c r="K18" t="n">
-        <v>54.4093011102587</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L18" t="n">
-        <v>337.314433165637</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M18" t="n">
-        <v>712.2060427186985</v>
+        <v>873.3058632974213</v>
       </c>
       <c r="N18" t="n">
-        <v>1115.43980721871</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O18" t="n">
-        <v>1428.572841265604</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P18" t="n">
-        <v>1625.193464940061</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q18" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S18" t="n">
-        <v>1627.958867440573</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T18" t="n">
-        <v>1413.952574208507</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U18" t="n">
-        <v>1398.074628597549</v>
+        <v>995.3051791025982</v>
       </c>
       <c r="V18" t="n">
-        <v>1398.074628597549</v>
+        <v>995.3051791025982</v>
       </c>
       <c r="W18" t="n">
-        <v>1128.676059327841</v>
+        <v>995.3051791025982</v>
       </c>
       <c r="X18" t="n">
-        <v>909.168064944537</v>
+        <v>775.7971847192946</v>
       </c>
       <c r="Y18" t="n">
-        <v>683.5273718798646</v>
+        <v>550.1564916546222</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="C19" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="D19" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="E19" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="F19" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="G19" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="H19" t="n">
         <v>34.31465285444516</v>
@@ -5676,7 +5676,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L19" t="n">
         <v>105.4471208306433</v>
@@ -5694,31 +5694,31 @@
         <v>334.8576753800222</v>
       </c>
       <c r="Q19" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R19" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S19" t="n">
-        <v>34.5268826241454</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="T19" t="n">
-        <v>34.5268826241454</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="U19" t="n">
-        <v>34.5268826241454</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="V19" t="n">
-        <v>34.5268826241454</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="W19" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="X19" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1204.385328156414</v>
+        <v>982.7124399493342</v>
       </c>
       <c r="C20" t="n">
-        <v>1204.385328156414</v>
+        <v>628.9695133016788</v>
       </c>
       <c r="D20" t="n">
-        <v>863.2013285178008</v>
+        <v>628.9695133016788</v>
       </c>
       <c r="E20" t="n">
-        <v>863.2013285178008</v>
+        <v>628.9695133016788</v>
       </c>
       <c r="F20" t="n">
-        <v>455.9293591844538</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="G20" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H20" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I20" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887602993</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292776</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N20" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O20" t="n">
         <v>1460.632785841149</v>
@@ -5776,28 +5776,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V20" t="n">
-        <v>1413.548593210149</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="W20" t="n">
-        <v>1413.548593210149</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="X20" t="n">
-        <v>1413.548593210149</v>
+        <v>1360.578339320883</v>
       </c>
       <c r="Y20" t="n">
-        <v>1413.548593210149</v>
+        <v>1360.578339320883</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.14864459367845</v>
+        <v>263.8573138597409</v>
       </c>
       <c r="C21" t="n">
-        <v>73.14864459367845</v>
+        <v>263.8573138597409</v>
       </c>
       <c r="D21" t="n">
-        <v>34.31465285444516</v>
+        <v>263.8573138597409</v>
       </c>
       <c r="E21" t="n">
-        <v>34.31465285444516</v>
+        <v>90.2941099811554</v>
       </c>
       <c r="F21" t="n">
         <v>34.31465285444516</v>
@@ -5831,19 +5831,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J21" t="n">
-        <v>54.4093011102587</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K21" t="n">
         <v>215.5091216889814</v>
       </c>
       <c r="L21" t="n">
-        <v>498.4142537443597</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M21" t="n">
-        <v>873.3058632974213</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N21" t="n">
-        <v>1082.820066520716</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O21" t="n">
         <v>1395.953100567611</v>
@@ -5858,25 +5858,25 @@
         <v>1627.958867440573</v>
       </c>
       <c r="S21" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T21" t="n">
-        <v>1448.884598007117</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U21" t="n">
-        <v>1209.311472334664</v>
+        <v>1174.379448536054</v>
       </c>
       <c r="V21" t="n">
-        <v>966.2317542382982</v>
+        <v>931.2997304396883</v>
       </c>
       <c r="W21" t="n">
-        <v>696.8331849685895</v>
+        <v>661.9011611699797</v>
       </c>
       <c r="X21" t="n">
-        <v>477.3251905852859</v>
+        <v>442.393166786676</v>
       </c>
       <c r="Y21" t="n">
-        <v>251.6844975206135</v>
+        <v>442.393166786676</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="C22" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416662</v>
       </c>
       <c r="D22" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416662</v>
       </c>
       <c r="E22" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416662</v>
       </c>
       <c r="F22" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416662</v>
       </c>
       <c r="G22" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416662</v>
       </c>
       <c r="H22" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416662</v>
       </c>
       <c r="I22" t="n">
         <v>34.31465285444516</v>
@@ -5913,7 +5913,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K22" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L22" t="n">
         <v>105.4471208306433</v>
@@ -5922,40 +5922,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N22" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O22" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P22" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q22" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R22" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S22" t="n">
-        <v>108.4089998231974</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T22" t="n">
-        <v>108.4089998231974</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U22" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V22" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W22" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X22" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>409.5458771591282</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="C23" t="n">
-        <v>409.5458771591282</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="D23" t="n">
-        <v>409.5458771591282</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="E23" t="n">
-        <v>34.31465285444516</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="F23" t="n">
-        <v>34.31465285444516</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G23" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H23" t="n">
         <v>34.31465285444516</v>
@@ -5989,16 +5989,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L23" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M23" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N23" t="n">
         <v>1186.279026157783</v>
@@ -6013,28 +6013,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S23" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T23" t="n">
-        <v>1195.201146295158</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U23" t="n">
-        <v>1195.201146295158</v>
+        <v>1562.252509467004</v>
       </c>
       <c r="V23" t="n">
-        <v>1159.109798081508</v>
+        <v>1562.252509467004</v>
       </c>
       <c r="W23" t="n">
-        <v>1159.109798081508</v>
+        <v>1562.252509467004</v>
       </c>
       <c r="X23" t="n">
-        <v>795.6929149555422</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="Y23" t="n">
-        <v>409.5458771591282</v>
+        <v>1198.835626341038</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.5472138633871</v>
+        <v>639.3778990035371</v>
       </c>
       <c r="C24" t="n">
-        <v>153.1349395963508</v>
+        <v>449.9656247365008</v>
       </c>
       <c r="D24" t="n">
-        <v>153.1349395963508</v>
+        <v>449.9656247365008</v>
       </c>
       <c r="E24" t="n">
-        <v>153.1349395963508</v>
+        <v>276.4024208579153</v>
       </c>
       <c r="F24" t="n">
-        <v>153.1349395963508</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="G24" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H24" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I24" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>54.4093011102587</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K24" t="n">
         <v>215.5091216889814</v>
       </c>
       <c r="L24" t="n">
-        <v>498.4142537443597</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M24" t="n">
-        <v>873.3058632974213</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N24" t="n">
-        <v>1082.820066520716</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O24" t="n">
-        <v>1395.953100567611</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P24" t="n">
         <v>1625.193464940061</v>
@@ -6095,25 +6095,25 @@
         <v>1627.958867440573</v>
       </c>
       <c r="S24" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T24" t="n">
-        <v>1448.884598007117</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U24" t="n">
-        <v>1209.311472334664</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="V24" t="n">
-        <v>966.2317542382982</v>
+        <v>1306.820315583484</v>
       </c>
       <c r="W24" t="n">
-        <v>966.2317542382982</v>
+        <v>1037.421746313776</v>
       </c>
       <c r="X24" t="n">
-        <v>746.7237598549946</v>
+        <v>817.9137519304722</v>
       </c>
       <c r="Y24" t="n">
-        <v>521.0830667903222</v>
+        <v>817.9137519304722</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C25" t="n">
         <v>34.31465285444516</v>
@@ -6150,7 +6150,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L25" t="n">
         <v>105.4471208306433</v>
@@ -6159,40 +6159,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N25" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O25" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P25" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q25" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R25" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S25" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T25" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U25" t="n">
-        <v>334.8576753800222</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="V25" t="n">
-        <v>334.8576753800222</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="W25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>255.1022874054274</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C26" t="n">
-        <v>255.1022874054274</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D26" t="n">
-        <v>255.1022874054274</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E26" t="n">
-        <v>255.1022874054274</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F26" t="n">
-        <v>255.1022874054274</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602985</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K26" t="n">
-        <v>253.897506719375</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L26" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M26" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292788</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O26" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P26" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q26" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R26" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S26" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427093</v>
       </c>
       <c r="T26" t="n">
-        <v>1195.201146295158</v>
+        <v>1519.054059427093</v>
       </c>
       <c r="U26" t="n">
-        <v>942.6401640759913</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="V26" t="n">
-        <v>618.5191705313932</v>
+        <v>942.3720836633285</v>
       </c>
       <c r="W26" t="n">
-        <v>618.5191705313932</v>
+        <v>942.3720836633285</v>
       </c>
       <c r="X26" t="n">
-        <v>255.1022874054274</v>
+        <v>798.327590022408</v>
       </c>
       <c r="Y26" t="n">
-        <v>255.1022874054274</v>
+        <v>412.180552225994</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>37.6782042885481</v>
+        <v>637.9302669363087</v>
       </c>
       <c r="C27" t="n">
-        <v>34.31465285444516</v>
+        <v>448.5179926692724</v>
       </c>
       <c r="D27" t="n">
-        <v>34.31465285444516</v>
+        <v>448.5179926692724</v>
       </c>
       <c r="E27" t="n">
-        <v>34.31465285444516</v>
+        <v>274.9547887906868</v>
       </c>
       <c r="F27" t="n">
-        <v>34.31465285444516</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="G27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J27" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K27" t="n">
-        <v>54.4093011102587</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L27" t="n">
-        <v>337.314433165637</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M27" t="n">
-        <v>712.2060427186985</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N27" t="n">
-        <v>1115.43980721871</v>
+        <v>1173.359244302915</v>
       </c>
       <c r="O27" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349809</v>
       </c>
       <c r="P27" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q27" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S27" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T27" t="n">
-        <v>1234.878304775052</v>
+        <v>1322.652080056738</v>
       </c>
       <c r="U27" t="n">
-        <v>995.3051791025987</v>
+        <v>1083.078954384285</v>
       </c>
       <c r="V27" t="n">
-        <v>752.2254610062328</v>
+        <v>1083.078954384285</v>
       </c>
       <c r="W27" t="n">
-        <v>482.8268917365241</v>
+        <v>1083.078954384285</v>
       </c>
       <c r="X27" t="n">
-        <v>263.3188973532204</v>
+        <v>863.5709600009811</v>
       </c>
       <c r="Y27" t="n">
-        <v>37.6782042885481</v>
+        <v>637.9302669363087</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K28" t="n">
         <v>42.23041924514574</v>
@@ -6396,40 +6396,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N28" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O28" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P28" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q28" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R28" t="n">
-        <v>158.7019259655666</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S28" t="n">
-        <v>158.7019259655666</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T28" t="n">
-        <v>158.7019259655666</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W28" t="n">
-        <v>34.31465285444516</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="X28" t="n">
-        <v>34.31465285444516</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1150.856285470723</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="C29" t="n">
-        <v>797.1133588230673</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="D29" t="n">
-        <v>455.9293591844538</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="E29" t="n">
-        <v>455.9293591844538</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="F29" t="n">
-        <v>455.9293591844538</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G29" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H29" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I29" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887602985</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K29" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L29" t="n">
         <v>525.528369138972</v>
@@ -6487,28 +6487,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S29" t="n">
-        <v>1610.227176505315</v>
+        <v>1625.888969267814</v>
       </c>
       <c r="T29" t="n">
-        <v>1610.227176505315</v>
+        <v>1407.541522352823</v>
       </c>
       <c r="U29" t="n">
-        <v>1357.666194286149</v>
+        <v>1154.980540133657</v>
       </c>
       <c r="V29" t="n">
-        <v>1150.856285470723</v>
+        <v>1154.980540133657</v>
       </c>
       <c r="W29" t="n">
-        <v>1150.856285470723</v>
+        <v>1154.980540133657</v>
       </c>
       <c r="X29" t="n">
-        <v>1150.856285470723</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="Y29" t="n">
-        <v>1150.856285470723</v>
+        <v>791.5636570076908</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>207.8778567330307</v>
+        <v>677.5615832708168</v>
       </c>
       <c r="C30" t="n">
-        <v>207.8778567330307</v>
+        <v>488.1493090037804</v>
       </c>
       <c r="D30" t="n">
-        <v>207.8778567330307</v>
+        <v>327.3691927648122</v>
       </c>
       <c r="E30" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="F30" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="G30" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H30" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I30" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J30" t="n">
-        <v>34.31465285444516</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K30" t="n">
-        <v>34.31465285444516</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L30" t="n">
-        <v>317.2197849098234</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M30" t="n">
-        <v>692.1113944628851</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N30" t="n">
-        <v>1095.345158962896</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O30" t="n">
-        <v>1395.953100567611</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P30" t="n">
         <v>1625.193464940061</v>
       </c>
       <c r="Q30" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S30" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T30" t="n">
-        <v>1234.878304775052</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="U30" t="n">
-        <v>995.3051791025987</v>
+        <v>1476.159517049806</v>
       </c>
       <c r="V30" t="n">
-        <v>752.2254610062328</v>
+        <v>1233.07979895344</v>
       </c>
       <c r="W30" t="n">
-        <v>605.9217040432694</v>
+        <v>963.6812296837312</v>
       </c>
       <c r="X30" t="n">
-        <v>386.4137096599658</v>
+        <v>744.1732353004276</v>
       </c>
       <c r="Y30" t="n">
-        <v>386.4137096599658</v>
+        <v>677.5615832708168</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="C31" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="D31" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E31" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K31" t="n">
         <v>42.23041924514574</v>
@@ -6633,40 +6633,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N31" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O31" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P31" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R31" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S31" t="n">
-        <v>258.475718923377</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T31" t="n">
-        <v>258.475718923377</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U31" t="n">
-        <v>258.475718923377</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="V31" t="n">
-        <v>258.475718923377</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="W31" t="n">
-        <v>258.475718923377</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="X31" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34.31465285444518</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="C32" t="n">
-        <v>34.31465285444518</v>
+        <v>932.5630660962519</v>
       </c>
       <c r="D32" t="n">
-        <v>34.31465285444518</v>
+        <v>932.5630660962519</v>
       </c>
       <c r="E32" t="n">
-        <v>34.31465285444518</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="F32" t="n">
-        <v>34.31465285444518</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="G32" t="n">
-        <v>34.31465285444518</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="H32" t="n">
-        <v>34.31465285444518</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887603007</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K32" t="n">
-        <v>253.8975067193758</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389727</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292786</v>
+        <v>856.6460009292787</v>
       </c>
       <c r="N32" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O32" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P32" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q32" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R32" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S32" t="n">
-        <v>1413.54859321015</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T32" t="n">
-        <v>1195.201146295158</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U32" t="n">
-        <v>942.6401640759917</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="V32" t="n">
-        <v>618.5191705313937</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="W32" t="n">
-        <v>277.2096111114271</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="X32" t="n">
-        <v>277.2096111114271</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="Y32" t="n">
-        <v>34.31465285444518</v>
+        <v>1266.493077207926</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>518.127006548759</v>
+        <v>558.0702472390352</v>
       </c>
       <c r="C33" t="n">
-        <v>518.127006548759</v>
+        <v>368.657972971999</v>
       </c>
       <c r="D33" t="n">
-        <v>357.3468903097908</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E33" t="n">
-        <v>183.7836864312053</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F33" t="n">
-        <v>183.7836864312053</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G33" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H33" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I33" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025872</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K33" t="n">
-        <v>215.5091216889815</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L33" t="n">
-        <v>304.6946924676441</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M33" t="n">
-        <v>679.5863020207057</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N33" t="n">
         <v>1082.820066520717</v>
@@ -6800,31 +6800,31 @@
         <v>1625.193464940061</v>
       </c>
       <c r="Q33" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
         <v>1627.958867440573</v>
       </c>
       <c r="S33" t="n">
-        <v>1448.884598007118</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T33" t="n">
-        <v>1234.878304775052</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="U33" t="n">
-        <v>995.3051791025991</v>
+        <v>1388.38574176812</v>
       </c>
       <c r="V33" t="n">
-        <v>752.2254610062332</v>
+        <v>1145.306023671754</v>
       </c>
       <c r="W33" t="n">
-        <v>752.2254610062332</v>
+        <v>1145.306023671754</v>
       </c>
       <c r="X33" t="n">
-        <v>743.7676996134314</v>
+        <v>925.7980292884502</v>
       </c>
       <c r="Y33" t="n">
-        <v>518.127006548759</v>
+        <v>736.6061001659702</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.31465285444518</v>
+        <v>87.27281155734542</v>
       </c>
       <c r="C34" t="n">
-        <v>34.31465285444518</v>
+        <v>87.27281155734542</v>
       </c>
       <c r="D34" t="n">
-        <v>34.31465285444518</v>
+        <v>87.27281155734542</v>
       </c>
       <c r="E34" t="n">
-        <v>34.31465285444518</v>
+        <v>87.27281155734542</v>
       </c>
       <c r="F34" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G34" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H34" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I34" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J34" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K34" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L34" t="n">
         <v>105.4471208306433</v>
@@ -6870,40 +6870,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N34" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O34" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P34" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R34" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S34" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T34" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U34" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V34" t="n">
-        <v>34.31465285444518</v>
+        <v>87.27281155734542</v>
       </c>
       <c r="W34" t="n">
-        <v>34.31465285444518</v>
+        <v>87.27281155734542</v>
       </c>
       <c r="X34" t="n">
-        <v>34.31465285444518</v>
+        <v>87.27281155734542</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.31465285444518</v>
+        <v>87.27281155734542</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>938.1127679116282</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="C35" t="n">
-        <v>938.1127679116282</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="D35" t="n">
-        <v>596.9287682730148</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E35" t="n">
-        <v>221.6975439683318</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F35" t="n">
-        <v>221.6975439683318</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G35" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H35" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I35" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602993</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K35" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L35" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M35" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292788</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P35" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q35" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R35" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="S35" t="n">
-        <v>1519.054059427092</v>
+        <v>1413.54859321015</v>
       </c>
       <c r="T35" t="n">
-        <v>1519.054059427092</v>
+        <v>1413.54859321015</v>
       </c>
       <c r="U35" t="n">
-        <v>1266.493077207926</v>
+        <v>1160.987610990984</v>
       </c>
       <c r="V35" t="n">
-        <v>942.372083663328</v>
+        <v>1160.987610990984</v>
       </c>
       <c r="W35" t="n">
-        <v>938.1127679116282</v>
+        <v>1160.987610990984</v>
       </c>
       <c r="X35" t="n">
-        <v>938.1127679116282</v>
+        <v>842.0763969808679</v>
       </c>
       <c r="Y35" t="n">
-        <v>938.1127679116282</v>
+        <v>455.9293591844538</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>813.8951292517472</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="C36" t="n">
-        <v>624.4828549847109</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="D36" t="n">
-        <v>463.7027387457426</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E36" t="n">
-        <v>463.7027387457426</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F36" t="n">
-        <v>303.2750224629867</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G36" t="n">
-        <v>153.8059888862266</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H36" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I36" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J36" t="n">
         <v>54.4093011102587</v>
       </c>
       <c r="K36" t="n">
-        <v>215.5091216889814</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="L36" t="n">
-        <v>498.4142537443597</v>
+        <v>337.3144331656369</v>
       </c>
       <c r="M36" t="n">
-        <v>873.3058632974213</v>
+        <v>679.5863020207059</v>
       </c>
       <c r="N36" t="n">
-        <v>1276.539627797432</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O36" t="n">
-        <v>1589.672661844326</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P36" t="n">
         <v>1625.193464940061</v>
       </c>
       <c r="Q36" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R36" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S36" t="n">
-        <v>1536.658373288803</v>
+        <v>1448.884598007118</v>
       </c>
       <c r="T36" t="n">
-        <v>1536.658373288803</v>
+        <v>1261.388682660407</v>
       </c>
       <c r="U36" t="n">
-        <v>1297.08524761635</v>
+        <v>1261.388682660407</v>
       </c>
       <c r="V36" t="n">
-        <v>1054.005529519984</v>
+        <v>1261.388682660407</v>
       </c>
       <c r="W36" t="n">
-        <v>1039.53582231642</v>
+        <v>991.9901133906978</v>
       </c>
       <c r="X36" t="n">
-        <v>1039.53582231642</v>
+        <v>772.4821190073942</v>
       </c>
       <c r="Y36" t="n">
-        <v>813.8951292517472</v>
+        <v>546.8414259427218</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="C37" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="D37" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="E37" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="F37" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="G37" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="H37" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I37" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J37" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K37" t="n">
         <v>42.23041924514574</v>
@@ -7107,40 +7107,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P37" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q37" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R37" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S37" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T37" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U37" t="n">
-        <v>43.32097474015944</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="V37" t="n">
-        <v>43.32097474015944</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="W37" t="n">
-        <v>43.32097474015944</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="X37" t="n">
-        <v>43.32097474015944</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="Y37" t="n">
-        <v>43.32097474015944</v>
+        <v>196.0146468272985</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1216.944255165456</v>
+        <v>964.6038111249159</v>
       </c>
       <c r="C38" t="n">
-        <v>863.2013285178008</v>
+        <v>964.6038111249159</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2013285178008</v>
+        <v>964.6038111249159</v>
       </c>
       <c r="E38" t="n">
-        <v>863.2013285178008</v>
+        <v>964.6038111249159</v>
       </c>
       <c r="F38" t="n">
-        <v>455.9293591844538</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="G38" t="n">
-        <v>34.31465285444516</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="H38" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I38" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K38" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L38" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M38" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N38" t="n">
         <v>1186.279026157783</v>
@@ -7204,22 +7204,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T38" t="n">
-        <v>1715.732642722258</v>
+        <v>1714.167732047296</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.732642722258</v>
+        <v>1714.167732047296</v>
       </c>
       <c r="V38" t="n">
-        <v>1715.732642722258</v>
+        <v>1714.167732047296</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.732642722258</v>
+        <v>1714.167732047296</v>
       </c>
       <c r="X38" t="n">
-        <v>1594.810154537005</v>
+        <v>1350.75084892133</v>
       </c>
       <c r="Y38" t="n">
-        <v>1594.810154537005</v>
+        <v>964.6038111249159</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>711.3040340828904</v>
+        <v>706.142906705425</v>
       </c>
       <c r="C39" t="n">
-        <v>521.8917598158541</v>
+        <v>706.142906705425</v>
       </c>
       <c r="D39" t="n">
-        <v>361.1116435768859</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="E39" t="n">
-        <v>187.5484396983003</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F39" t="n">
-        <v>183.7836864312053</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G39" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H39" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I39" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K39" t="n">
-        <v>215.5091216889814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L39" t="n">
-        <v>498.4142537443597</v>
+        <v>317.2197849098234</v>
       </c>
       <c r="M39" t="n">
-        <v>873.3058632974213</v>
+        <v>692.1113944628851</v>
       </c>
       <c r="N39" t="n">
-        <v>1082.820066520716</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O39" t="n">
-        <v>1395.953100567611</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P39" t="n">
-        <v>1625.193464940061</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q39" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S39" t="n">
-        <v>1627.958867440573</v>
+        <v>1599.226016350045</v>
       </c>
       <c r="T39" t="n">
-        <v>1627.958867440573</v>
+        <v>1599.226016350045</v>
       </c>
       <c r="U39" t="n">
-        <v>1627.958867440573</v>
+        <v>1599.226016350045</v>
       </c>
       <c r="V39" t="n">
-        <v>1384.879149344207</v>
+        <v>1599.226016350045</v>
       </c>
       <c r="W39" t="n">
-        <v>1115.480580074498</v>
+        <v>1329.827447080336</v>
       </c>
       <c r="X39" t="n">
-        <v>1115.480580074498</v>
+        <v>1110.319452697033</v>
       </c>
       <c r="Y39" t="n">
-        <v>889.8398870098256</v>
+        <v>884.6787596323602</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="C40" t="n">
-        <v>1555.519804255718</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="D40" t="n">
-        <v>1555.519804255718</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="E40" t="n">
-        <v>1555.519804255718</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196681</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196681</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="X40" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="Y40" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328436</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.794881312374</v>
+        <v>1352.315759596292</v>
       </c>
       <c r="C41" t="n">
-        <v>1166.794881312374</v>
+        <v>998.5728329486369</v>
       </c>
       <c r="D41" t="n">
-        <v>1166.794881312374</v>
+        <v>998.5728329486369</v>
       </c>
       <c r="E41" t="n">
-        <v>791.5636570076908</v>
+        <v>998.5728329486369</v>
       </c>
       <c r="F41" t="n">
-        <v>791.5636570076908</v>
+        <v>591.3008636152899</v>
       </c>
       <c r="G41" t="n">
         <v>369.9489506776823</v>
@@ -7411,10 +7411,10 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K41" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L41" t="n">
         <v>525.528369138972</v>
@@ -7435,28 +7435,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U41" t="n">
-        <v>1357.666194286149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V41" t="n">
-        <v>1357.666194286149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W41" t="n">
-        <v>1357.666194286149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X41" t="n">
-        <v>1357.666194286149</v>
+        <v>1352.315759596292</v>
       </c>
       <c r="Y41" t="n">
-        <v>1357.666194286149</v>
+        <v>1352.315759596292</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>908.3382686120787</v>
+        <v>848.968384250981</v>
       </c>
       <c r="C42" t="n">
-        <v>718.9259943450423</v>
+        <v>659.5561099839447</v>
       </c>
       <c r="D42" t="n">
-        <v>718.9259943450423</v>
+        <v>498.7759937449764</v>
       </c>
       <c r="E42" t="n">
-        <v>545.3627904664568</v>
+        <v>325.2127898663908</v>
       </c>
       <c r="F42" t="n">
-        <v>384.9350741837009</v>
+        <v>164.7850735836349</v>
       </c>
       <c r="G42" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I42" t="n">
         <v>34.31465285444516</v>
@@ -7493,19 +7493,19 @@
         <v>54.4093011102587</v>
       </c>
       <c r="K42" t="n">
-        <v>215.5091216889814</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="L42" t="n">
-        <v>498.4142537443597</v>
+        <v>304.6946924676437</v>
       </c>
       <c r="M42" t="n">
-        <v>873.3058632974213</v>
+        <v>679.5863020207053</v>
       </c>
       <c r="N42" t="n">
-        <v>1276.539627797432</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O42" t="n">
-        <v>1589.672661844326</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P42" t="n">
         <v>1625.19346494006</v>
@@ -7517,25 +7517,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
-        <v>1536.658373288803</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T42" t="n">
-        <v>1322.652080056737</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U42" t="n">
-        <v>1322.652080056737</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V42" t="n">
-        <v>1322.652080056737</v>
+        <v>1472.652924625892</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.253510787029</v>
+        <v>1472.652924625892</v>
       </c>
       <c r="X42" t="n">
-        <v>1053.253510787029</v>
+        <v>1253.144930242589</v>
       </c>
       <c r="Y42" t="n">
-        <v>1053.253510787029</v>
+        <v>1027.504237177916</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1660.279830822096</v>
+        <v>317.752050259164</v>
       </c>
       <c r="C43" t="n">
-        <v>1660.279830822096</v>
+        <v>317.752050259164</v>
       </c>
       <c r="D43" t="n">
-        <v>1660.279830822096</v>
+        <v>317.752050259164</v>
       </c>
       <c r="E43" t="n">
-        <v>1660.279830822096</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
-        <v>1490.527291646717</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>1490.527291646717</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
-        <v>1490.527291646717</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L43" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M43" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N43" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O43" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U43" t="n">
-        <v>1660.279830822096</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V43" t="n">
-        <v>1660.279830822096</v>
+        <v>317.752050259164</v>
       </c>
       <c r="W43" t="n">
-        <v>1660.279830822096</v>
+        <v>317.752050259164</v>
       </c>
       <c r="X43" t="n">
-        <v>1660.279830822096</v>
+        <v>317.752050259164</v>
       </c>
       <c r="Y43" t="n">
-        <v>1660.279830822096</v>
+        <v>317.752050259164</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>306.0886035251705</v>
+        <v>1050.302089757694</v>
       </c>
       <c r="C44" t="n">
-        <v>306.0886035251705</v>
+        <v>696.5591631100383</v>
       </c>
       <c r="D44" t="n">
-        <v>306.0886035251705</v>
+        <v>355.3751634714249</v>
       </c>
       <c r="E44" t="n">
-        <v>34.31465285444516</v>
+        <v>355.3751634714249</v>
       </c>
       <c r="F44" t="n">
-        <v>34.31465285444516</v>
+        <v>355.3751634714249</v>
       </c>
       <c r="G44" t="n">
-        <v>34.31465285444516</v>
+        <v>355.3751634714249</v>
       </c>
       <c r="H44" t="n">
         <v>34.31465285444516</v>
@@ -7648,16 +7648,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K44" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L44" t="n">
         <v>525.528369138972</v>
       </c>
       <c r="M44" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157783</v>
@@ -7672,28 +7672,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S44" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T44" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U44" t="n">
-        <v>1357.666194286149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V44" t="n">
-        <v>1033.545200741551</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="W44" t="n">
-        <v>692.2356413215846</v>
+        <v>1050.302089757694</v>
       </c>
       <c r="X44" t="n">
-        <v>692.2356413215846</v>
+        <v>1050.302089757694</v>
       </c>
       <c r="Y44" t="n">
-        <v>306.0886035251705</v>
+        <v>1050.302089757694</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>745.9717411220391</v>
+        <v>719.2783943012547</v>
       </c>
       <c r="C45" t="n">
-        <v>556.5594668550028</v>
+        <v>719.2783943012547</v>
       </c>
       <c r="D45" t="n">
-        <v>395.7793506160345</v>
+        <v>558.4982780622864</v>
       </c>
       <c r="E45" t="n">
-        <v>222.216146737449</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="F45" t="n">
-        <v>222.216146737449</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G45" t="n">
-        <v>72.74711316068891</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H45" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I45" t="n">
         <v>34.31465285444516</v>
@@ -7733,46 +7733,46 @@
         <v>54.4093011102587</v>
       </c>
       <c r="L45" t="n">
-        <v>337.314433165637</v>
+        <v>304.6946924676437</v>
       </c>
       <c r="M45" t="n">
-        <v>712.2060427186985</v>
+        <v>679.5863020207053</v>
       </c>
       <c r="N45" t="n">
-        <v>1115.43980721871</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O45" t="n">
-        <v>1428.572841265604</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P45" t="n">
-        <v>1657.813205638054</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S45" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T45" t="n">
-        <v>1234.878304775051</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U45" t="n">
-        <v>1234.878304775051</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V45" t="n">
-        <v>1234.878304775051</v>
+        <v>839.9992362879182</v>
       </c>
       <c r="W45" t="n">
-        <v>965.4797355053428</v>
+        <v>839.9992362879182</v>
       </c>
       <c r="X45" t="n">
-        <v>745.9717411220391</v>
+        <v>839.9992362879182</v>
       </c>
       <c r="Y45" t="n">
-        <v>745.9717411220391</v>
+        <v>719.2783943012547</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L46" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M46" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N46" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O46" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V46" t="n">
-        <v>1576.889614169534</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="W46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
   </sheetData>
@@ -8774,13 +8774,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>44.62821923470651</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526882</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9008,7 +9008,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>67.15086399372866</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9017,7 +9017,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>114.9375340526877</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9026,7 +9026,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9245,7 +9245,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>8.646382090491642</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9254,13 +9254,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526869</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>173.4146410504036</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9491,10 +9491,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>114.9375340526873</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O21" t="n">
-        <v>255.2227828913207</v>
+        <v>59.54645836938565</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9728,13 +9728,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>114.9375340526873</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>10.68754955674432</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -9953,10 +9953,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K27" t="n">
-        <v>8.646382090491642</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9965,16 +9965,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>310.6138585746227</v>
+        <v>226.6888734850226</v>
       </c>
       <c r="O27" t="n">
-        <v>222.273549863045</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>61.40936639976317</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>8.646382090491642</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10205,10 +10205,10 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
-        <v>242.5711743638665</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>206.3638740786793</v>
+        <v>10.68754955674478</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1300824528302</v>
@@ -10433,13 +10433,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
-        <v>44.62821923470665</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O33" t="n">
         <v>255.2227828913207</v>
@@ -10667,13 +10667,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>171.373473584151</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M36" t="n">
-        <v>301.77688131</v>
+        <v>268.8276482817247</v>
       </c>
       <c r="N36" t="n">
         <v>310.6138585746227</v>
@@ -10682,7 +10682,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>10.68754955674429</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1300824528302</v>
@@ -10901,10 +10901,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K39" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491642</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10913,13 +10913,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
-        <v>114.9375340526873</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O39" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P39" t="n">
-        <v>206.3638740786793</v>
+        <v>193.712265551225</v>
       </c>
       <c r="Q39" t="n">
         <v>136.1300824528302</v>
@@ -11080,7 +11080,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.580113947618</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11141,10 +11141,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491642</v>
       </c>
       <c r="L42" t="n">
-        <v>240.3045437566416</v>
+        <v>207.3553107283655</v>
       </c>
       <c r="M42" t="n">
         <v>301.77688131</v>
@@ -11156,7 +11156,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
-        <v>10.68754955674406</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1300824528302</v>
@@ -11305,7 +11305,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
-        <v>291.2847697033555</v>
+        <v>291.2847697033553</v>
       </c>
       <c r="N44" t="n">
         <v>283.4008070189657</v>
@@ -11381,7 +11381,7 @@
         <v>8.646382090491642</v>
       </c>
       <c r="L45" t="n">
-        <v>240.3045437566416</v>
+        <v>207.3553107283655</v>
       </c>
       <c r="M45" t="n">
         <v>301.77688131</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.1808494245544</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.0872403778333</v>
+        <v>23.55231116788582</v>
       </c>
       <c r="C11" t="n">
         <v>350.2054973811788</v>
@@ -23266,19 +23266,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>15.76544517947951</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,19 +23345,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>149.5579940324043</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>15.24703649414204</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -23436,7 +23436,7 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I13" t="n">
-        <v>93.00459219947584</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
         <v>74.58429473553586</v>
@@ -23469,13 +23469,13 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T13" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6213336334641</v>
+        <v>212.0861385338498</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>58.37222973713517</v>
       </c>
       <c r="E14" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>216.8773565064078</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
         <v>382.2855674184499</v>
@@ -23576,25 +23576,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>28.9077031680032</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>32.10650606793317</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
         <v>211.8662302997449</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23655,7 +23655,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>89.92198587235799</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
@@ -23676,7 +23676,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R16" t="n">
         <v>174.3941919203111</v>
@@ -23718,7 +23718,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X16" t="n">
-        <v>145.3842603086282</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
         <v>217.1412728141684</v>
@@ -23737,19 +23737,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>26.40152643148747</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
         <v>185.5090622027478</v>
@@ -23782,22 +23782,22 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
-        <v>178.8672507836804</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>382.2855674184499</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>131.0539632578987</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23822,13 +23822,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>80.84345120350704</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>221.45822826088</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H19" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>145.433169315347</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>86.72959053406004</v>
       </c>
       <c r="T19" t="n">
         <v>221.0023972007068</v>
@@ -23952,7 +23952,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>290.1005996173321</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.0156079746358</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
         <v>371.4789120616362</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I20" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
         <v>216.1639724458418</v>
@@ -24028,13 +24028,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>329.0597375364968</v>
       </c>
       <c r="Y20" t="n">
         <v>382.2855674184499</v>
@@ -24053,13 +24053,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>120.7266632547376</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>103.4037765644852</v>
       </c>
       <c r="G21" t="n">
         <v>147.9743432409925</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C22" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>145.1826502507107</v>
@@ -24147,7 +24147,7 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I22" t="n">
-        <v>145.433169315347</v>
+        <v>14.35275798699823</v>
       </c>
       <c r="J22" t="n">
         <v>74.58429473553585</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R22" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T22" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U22" t="n">
-        <v>215.2679301343994</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24214,16 +24214,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>185.5090622027478</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0353723969745</v>
+        <v>98.09004047427237</v>
       </c>
       <c r="V23" t="n">
-        <v>285.1493488776389</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -24293,19 +24293,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>30.34225936650593</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>134.5879848766297</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -24366,7 +24366,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
         <v>145.1826502507107</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R25" t="n">
         <v>174.3941919203111</v>
@@ -24420,13 +24420,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>159.2302957609864</v>
+        <v>281.3944484224783</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
@@ -24457,7 +24457,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>198.8188010612361</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
         <v>332.2779548450047</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>217.1786655901949</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24524,19 +24524,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>184.188235604604</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>68.56404778404158</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>118.2964226714636</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24581,10 +24581,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S28" t="n">
         <v>224.1841888012565</v>
@@ -24657,19 +24657,19 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
-        <v>165.477933253454</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>209.9143876031826</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
         <v>371.4789120616362</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>185.5090622027478</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7117974622146</v>
+        <v>105.7665607423147</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>116.1379738818798</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>382.2855674184499</v>
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24776,7 +24776,7 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H30" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>80.84345120350704</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>121.8638641836779</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>157.4387506247109</v>
       </c>
     </row>
     <row r="31">
@@ -24849,7 +24849,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>168.0550137836253</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R31" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S31" t="n">
-        <v>221.7093479362393</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T31" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6213336334641</v>
+        <v>130.0106235515896</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24903,7 +24903,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
         <v>217.1412728141684</v>
@@ -24919,13 +24919,13 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>19.61478638062141</v>
       </c>
       <c r="D32" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>403.1992496400135</v>
@@ -24934,10 +24934,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.8195587440377</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25010,7 +25010,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H33" t="n">
         <v>118.2964226714636</v>
@@ -25046,10 +25046,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>208.9397306605968</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>36.08427630277052</v>
       </c>
     </row>
     <row r="34">
@@ -25086,7 +25086,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>86.4983051025754</v>
       </c>
       <c r="G34" t="n">
         <v>168.0550137836253</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
         <v>224.1841888012565</v>
@@ -25131,10 +25131,10 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
-        <v>238.6212292805154</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V34" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>290.3107070893353</v>
@@ -25159,22 +25159,22 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>333.6797412315841</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>44.06061242469173</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
         <v>80.84345120350704</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8662302997449</v>
+        <v>26.24527410650106</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>252.379573445483</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>168.7006619981109</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -25329,7 +25329,7 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H37" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>145.433169315347</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R37" t="n">
         <v>174.3941919203111</v>
@@ -25368,7 +25368,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>151.1667353662677</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
         <v>337.7721596422273</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T38" t="n">
-        <v>216.1639724458418</v>
+        <v>214.6147108776289</v>
       </c>
       <c r="U38" t="n">
         <v>250.0353723969745</v>
@@ -25456,10 +25456,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>240.0694509913054</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25472,25 +25472,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>155.0963333855042</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>61.94196663063005</v>
       </c>
       <c r="T39" t="n">
         <v>211.8662302997449</v>
@@ -25529,13 +25529,13 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>7.846470890097748</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25560,13 +25560,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>168.0550137836253</v>
       </c>
       <c r="H40" t="n">
-        <v>160.0829940331247</v>
+        <v>83.54779893351028</v>
       </c>
       <c r="I40" t="n">
         <v>145.433169315347</v>
@@ -25602,7 +25602,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T40" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>288.6213336334641</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>185.1246405337961</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>198.2601654584769</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
         <v>194.7117974622146</v>
@@ -25684,7 +25684,7 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25693,7 +25693,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>382.2855674184499</v>
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33.28440464446538</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>18.80862671909463</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>86.89603752886883</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25794,13 +25794,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H43" t="n">
         <v>160.0829940331247</v>
@@ -25809,7 +25809,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>233.7230498523039</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V43" t="n">
-        <v>245.1090151844499</v>
+        <v>228.1744463148003</v>
       </c>
       <c r="W43" t="n">
         <v>290.3107070893353</v>
@@ -25867,13 +25867,13 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>102.4227008976181</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
         <v>403.1992496400135</v>
@@ -25882,7 +25882,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
-        <v>332.2779548450047</v>
+        <v>14.42804933419478</v>
       </c>
       <c r="I44" t="n">
         <v>185.5090622027478</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
         <v>194.7117974622146</v>
@@ -25921,7 +25921,7 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>80.24828696828229</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26000,19 +26000,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>103.8706525672288</v>
       </c>
     </row>
     <row r="46">
@@ -26040,7 +26040,7 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I46" t="n">
         <v>145.433169315347</v>
@@ -26070,7 +26070,7 @@
         <v>73.1432960270615</v>
       </c>
       <c r="R46" t="n">
-        <v>36.93959365311451</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S46" t="n">
         <v>224.1841888012565</v>
@@ -26082,10 +26082,10 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V46" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>290.3107070893353</v>
+        <v>237.882129973464</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>517767.8899055017</v>
+        <v>517767.8899055019</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>517767.889905502</v>
+        <v>517767.8899055019</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>517767.8899055019</v>
+        <v>517767.8899055017</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>517767.8899055019</v>
+        <v>517767.889905502</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>517767.8899055019</v>
+        <v>517767.8899055017</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>517767.889905502</v>
+        <v>517767.8899055017</v>
       </c>
     </row>
     <row r="16">
@@ -26316,19 +26316,19 @@
         <v>661448.9963823447</v>
       </c>
       <c r="C2" t="n">
-        <v>661448.9963823445</v>
+        <v>661448.9963823449</v>
       </c>
       <c r="D2" t="n">
-        <v>661448.9963823446</v>
+        <v>661448.9963823449</v>
       </c>
       <c r="E2" t="n">
-        <v>375693.1876893953</v>
+        <v>375693.1876893952</v>
       </c>
       <c r="F2" t="n">
-        <v>375693.1876893954</v>
+        <v>375693.1876893952</v>
       </c>
       <c r="G2" t="n">
-        <v>375693.1876893954</v>
+        <v>375693.1876893951</v>
       </c>
       <c r="H2" t="n">
         <v>375693.1876893953</v>
@@ -26337,19 +26337,19 @@
         <v>375693.1876893953</v>
       </c>
       <c r="J2" t="n">
-        <v>375693.1876893954</v>
+        <v>375693.1876893952</v>
       </c>
       <c r="K2" t="n">
         <v>375693.1876893953</v>
       </c>
       <c r="L2" t="n">
-        <v>375693.1876893954</v>
+        <v>375693.1876893953</v>
       </c>
       <c r="M2" t="n">
-        <v>375693.1876893955</v>
+        <v>375693.1876893953</v>
       </c>
       <c r="N2" t="n">
-        <v>375693.1876893953</v>
+        <v>375693.1876893952</v>
       </c>
       <c r="O2" t="n">
         <v>375693.1876893952</v>
@@ -26429,22 +26429,22 @@
         <v>17165.37605798123</v>
       </c>
       <c r="F4" t="n">
+        <v>17165.37605798123</v>
+      </c>
+      <c r="G4" t="n">
         <v>17165.37605798122</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>17165.37605798123</v>
       </c>
-      <c r="H4" t="n">
-        <v>17165.37605798122</v>
-      </c>
       <c r="I4" t="n">
-        <v>17165.37605798122</v>
+        <v>17165.37605798123</v>
       </c>
       <c r="J4" t="n">
         <v>17165.37605798123</v>
       </c>
       <c r="K4" t="n">
-        <v>17165.37605798122</v>
+        <v>17165.37605798123</v>
       </c>
       <c r="L4" t="n">
         <v>17165.37605798123</v>
@@ -26459,7 +26459,7 @@
         <v>17165.37605798122</v>
       </c>
       <c r="P4" t="n">
-        <v>17165.37605798123</v>
+        <v>17165.37605798122</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>36091.33751189046</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36091.33751189046</v>
+      </c>
+      <c r="G5" t="n">
         <v>36091.33751189045</v>
       </c>
-      <c r="F5" t="n">
-        <v>36091.33751189045</v>
-      </c>
-      <c r="G5" t="n">
-        <v>36091.33751189047</v>
-      </c>
       <c r="H5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="I5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="J5" t="n">
         <v>36091.33751189047</v>
@@ -26499,13 +26499,13 @@
         <v>36091.33751189047</v>
       </c>
       <c r="L5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="M5" t="n">
         <v>36091.33751189047</v>
       </c>
       <c r="N5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="O5" t="n">
         <v>36091.33751189046</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>229318.2795563696</v>
+        <v>229273.6157143177</v>
       </c>
       <c r="C6" t="n">
-        <v>229318.2795563694</v>
+        <v>229273.6157143177</v>
       </c>
       <c r="D6" t="n">
-        <v>229318.2795563695</v>
+        <v>229273.6157143178</v>
       </c>
       <c r="E6" t="n">
-        <v>-174616.6776979687</v>
+        <v>-184186.5351631191</v>
       </c>
       <c r="F6" t="n">
-        <v>322436.4741195237</v>
+        <v>312866.6166543732</v>
       </c>
       <c r="G6" t="n">
-        <v>322436.4741195238</v>
+        <v>312866.6166543732</v>
       </c>
       <c r="H6" t="n">
-        <v>322436.4741195237</v>
+        <v>312866.6166543734</v>
       </c>
       <c r="I6" t="n">
-        <v>322436.4741195236</v>
+        <v>312866.6166543734</v>
       </c>
       <c r="J6" t="n">
-        <v>322436.4741195237</v>
+        <v>312866.6166543732</v>
       </c>
       <c r="K6" t="n">
-        <v>322436.4741195237</v>
+        <v>312866.6166543734</v>
       </c>
       <c r="L6" t="n">
-        <v>322436.4741195238</v>
+        <v>312866.6166543734</v>
       </c>
       <c r="M6" t="n">
-        <v>215544.6147452845</v>
+        <v>205974.757280134</v>
       </c>
       <c r="N6" t="n">
-        <v>322436.4741195236</v>
+        <v>312866.6166543733</v>
       </c>
       <c r="O6" t="n">
-        <v>322436.4741195235</v>
+        <v>312866.6166543732</v>
       </c>
       <c r="P6" t="n">
-        <v>322436.4741195235</v>
+        <v>312866.6166543732</v>
       </c>
     </row>
   </sheetData>
@@ -26755,22 +26755,22 @@
         <v>459.2752909409237</v>
       </c>
       <c r="H3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="I3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="J3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="K3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="L3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="M3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="N3" t="n">
         <v>459.2752909409237</v>
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="F4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="G4" t="n">
         <v>428.9331606805645</v>
-      </c>
-      <c r="F4" t="n">
-        <v>428.9331606805645</v>
-      </c>
-      <c r="G4" t="n">
-        <v>428.9331606805646</v>
       </c>
       <c r="H4" t="n">
         <v>428.9331606805646</v>
@@ -26813,19 +26813,19 @@
         <v>428.9331606805646</v>
       </c>
       <c r="J4" t="n">
+        <v>428.9331606805647</v>
+      </c>
+      <c r="K4" t="n">
+        <v>428.9331606805647</v>
+      </c>
+      <c r="L4" t="n">
         <v>428.9331606805646</v>
       </c>
-      <c r="K4" t="n">
-        <v>428.9331606805646</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>428.9331606805647</v>
       </c>
-      <c r="M4" t="n">
-        <v>428.9331606805646</v>
-      </c>
       <c r="N4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="O4" t="n">
         <v>428.9331606805645</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31992,19 +31992,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H14" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J14" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K14" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L14" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M14" t="n">
         <v>324.1998891675596</v>
@@ -32013,10 +32013,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O14" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P14" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q14" t="n">
         <v>199.3831741692328</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H15" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582263</v>
@@ -32089,10 +32089,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N15" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O15" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P15" t="n">
         <v>188.640826575339</v>
@@ -32101,13 +32101,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S15" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T15" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U15" t="n">
         <v>0.06499178645390431</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H16" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I16" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J16" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
@@ -32168,7 +32168,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N16" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O16" t="n">
         <v>117.0624954680243</v>
@@ -32177,16 +32177,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R16" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S16" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T16" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U16" t="n">
         <v>0.0451746187810745</v>
@@ -32475,16 +32475,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K20" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L20" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M20" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N20" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O20" t="n">
         <v>311.0863102573771</v>
@@ -32493,16 +32493,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R20" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S20" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T20" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U20" t="n">
         <v>0.1477066262322567</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H21" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I21" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J21" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K21" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L21" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M21" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N21" t="n">
         <v>256.9298629953381</v>
@@ -32575,16 +32575,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R21" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S21" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T21" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H22" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I22" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J22" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L22" t="n">
         <v>123.1309525909486</v>
@@ -32651,7 +32651,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R22" t="n">
         <v>37.2389440818657</v>
@@ -32663,7 +32663,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32712,16 +32712,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K23" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L23" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M23" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N23" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O23" t="n">
         <v>311.0863102573771</v>
@@ -32730,16 +32730,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R23" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S23" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T23" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U23" t="n">
         <v>0.1477066262322567</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H24" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I24" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L24" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M24" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N24" t="n">
         <v>256.9298629953381</v>
@@ -32812,16 +32812,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S24" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T24" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H25" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I25" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J25" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L25" t="n">
         <v>123.1309525909486</v>
@@ -32888,7 +32888,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R25" t="n">
         <v>37.2389440818657</v>
@@ -32900,7 +32900,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32949,16 +32949,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K26" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L26" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M26" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N26" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O26" t="n">
         <v>311.0863102573771</v>
@@ -32967,16 +32967,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q26" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R26" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S26" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T26" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U26" t="n">
         <v>0.1477066262322567</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H27" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I27" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J27" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K27" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L27" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M27" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N27" t="n">
         <v>256.9298629953381</v>
@@ -33049,16 +33049,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R27" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S27" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T27" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H28" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I28" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J28" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K28" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L28" t="n">
         <v>123.1309525909486</v>
@@ -33125,7 +33125,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R28" t="n">
         <v>37.2389440818657</v>
@@ -33137,7 +33137,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33186,16 +33186,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K29" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L29" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M29" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N29" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O29" t="n">
         <v>311.0863102573771</v>
@@ -33204,16 +33204,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q29" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R29" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S29" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T29" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U29" t="n">
         <v>0.1477066262322567</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H30" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I30" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J30" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K30" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L30" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M30" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N30" t="n">
         <v>256.9298629953381</v>
@@ -33286,16 +33286,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R30" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S30" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T30" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H31" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I31" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J31" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K31" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L31" t="n">
         <v>123.1309525909486</v>
@@ -33362,7 +33362,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R31" t="n">
         <v>37.2389440818657</v>
@@ -33374,7 +33374,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33423,16 +33423,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K32" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L32" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M32" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N32" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O32" t="n">
         <v>311.0863102573771</v>
@@ -33441,16 +33441,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q32" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R32" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S32" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T32" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U32" t="n">
         <v>0.1477066262322567</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H33" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I33" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J33" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K33" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L33" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M33" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N33" t="n">
         <v>256.9298629953381</v>
@@ -33523,16 +33523,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R33" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S33" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T33" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H34" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I34" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J34" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K34" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L34" t="n">
         <v>123.1309525909486</v>
@@ -33599,7 +33599,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R34" t="n">
         <v>37.2389440818657</v>
@@ -33611,7 +33611,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33660,16 +33660,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K35" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L35" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M35" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N35" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O35" t="n">
         <v>311.0863102573771</v>
@@ -33678,16 +33678,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q35" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R35" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S35" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T35" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U35" t="n">
         <v>0.1477066262322567</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H36" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I36" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J36" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K36" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L36" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M36" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N36" t="n">
         <v>256.9298629953381</v>
@@ -33760,16 +33760,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R36" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S36" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T36" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H37" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I37" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J37" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K37" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L37" t="n">
         <v>123.1309525909486</v>
@@ -33836,7 +33836,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R37" t="n">
         <v>37.2389440818657</v>
@@ -33848,7 +33848,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>162.7270914936593</v>
       </c>
       <c r="L12" t="n">
-        <v>90.0864351299621</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M12" t="n">
         <v>378.6783934879409</v>
       </c>
       <c r="N12" t="n">
-        <v>407.306832828294</v>
+        <v>211.6305083063595</v>
       </c>
       <c r="O12" t="n">
         <v>316.2959939867616</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K14" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L14" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M14" t="n">
         <v>334.4622543336424</v>
@@ -35661,13 +35661,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O14" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P14" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K15" t="n">
-        <v>162.7270914936593</v>
+        <v>58.50448190323699</v>
       </c>
       <c r="L15" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M15" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N15" t="n">
-        <v>211.630508306359</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O15" t="n">
         <v>316.2959939867616</v>
@@ -35746,7 +35746,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,19 +35807,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M16" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P16" t="n">
         <v>19.62327613144092</v>
@@ -35965,7 +35965,7 @@
         <v>20.29762450082175</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L18" t="n">
         <v>285.7627596518972</v>
@@ -35974,13 +35974,13 @@
         <v>378.678393487941</v>
       </c>
       <c r="N18" t="n">
-        <v>407.3068328282941</v>
+        <v>211.6305083063583</v>
       </c>
       <c r="O18" t="n">
         <v>316.2959939867617</v>
       </c>
       <c r="P18" t="n">
-        <v>198.6066905802598</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
         <v>91.45371493151266</v>
@@ -36132,7 +36132,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N20" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O20" t="n">
         <v>277.1250097811783</v>
@@ -36141,7 +36141,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.29762450082175</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K21" t="n">
         <v>162.7270914936593</v>
@@ -36211,16 +36211,16 @@
         <v>378.678393487941</v>
       </c>
       <c r="N21" t="n">
-        <v>211.6305083063587</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O21" t="n">
-        <v>316.2959939867617</v>
+        <v>120.6196694648265</v>
       </c>
       <c r="P21" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L22" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M22" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N22" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N23" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O23" t="n">
         <v>277.1250097811783</v>
@@ -36378,7 +36378,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.29762450082175</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K24" t="n">
         <v>162.7270914936593</v>
@@ -36448,16 +36448,16 @@
         <v>378.678393487941</v>
       </c>
       <c r="N24" t="n">
-        <v>211.6305083063587</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O24" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P24" t="n">
-        <v>231.5559236085354</v>
+        <v>35.87959908660044</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M25" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P25" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N26" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O26" t="n">
         <v>277.1250097811783</v>
@@ -36615,7 +36615,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L27" t="n">
         <v>285.7627596518972</v>
@@ -36685,16 +36685,16 @@
         <v>378.678393487941</v>
       </c>
       <c r="N27" t="n">
-        <v>407.3068328282941</v>
+        <v>323.381847738694</v>
       </c>
       <c r="O27" t="n">
-        <v>283.3467609584859</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P27" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.45371493151266</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L28" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M28" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N28" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O28" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P28" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N29" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O29" t="n">
         <v>277.1250097811783</v>
@@ -36852,7 +36852,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518972</v>
@@ -36925,13 +36925,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O30" t="n">
-        <v>303.6443854593074</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P30" t="n">
-        <v>231.5559236085354</v>
+        <v>35.8795990866009</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L31" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M31" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N31" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O31" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P31" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N32" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O32" t="n">
         <v>277.1250097811783</v>
@@ -37089,7 +37089,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082175</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K33" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L33" t="n">
-        <v>90.0864351299623</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M33" t="n">
         <v>378.678393487941</v>
       </c>
       <c r="N33" t="n">
-        <v>407.3068328282941</v>
+        <v>211.630508306359</v>
       </c>
       <c r="O33" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P33" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L34" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M34" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N34" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O34" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P34" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N35" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O35" t="n">
         <v>277.1250097811783</v>
@@ -37326,7 +37326,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.29762450082175</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K36" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>285.7627596518972</v>
       </c>
       <c r="M36" t="n">
-        <v>378.678393487941</v>
+        <v>345.7291604596657</v>
       </c>
       <c r="N36" t="n">
         <v>407.3068328282941</v>
       </c>
       <c r="O36" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P36" t="n">
-        <v>35.87959908660044</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L37" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M37" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N37" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O37" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P37" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>176.3970685286315</v>
       </c>
       <c r="L38" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046432</v>
       </c>
       <c r="M38" t="n">
         <v>334.4622543336424</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>285.7627596518972</v>
@@ -37633,13 +37633,13 @@
         <v>378.678393487941</v>
       </c>
       <c r="N39" t="n">
-        <v>211.6305083063587</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O39" t="n">
         <v>316.2959939867617</v>
       </c>
       <c r="P39" t="n">
-        <v>231.5559236085354</v>
+        <v>218.9043150810811</v>
       </c>
       <c r="Q39" t="n">
         <v>91.45371493151266</v>
@@ -37800,7 +37800,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.75034647002249</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>20.29762450082175</v>
       </c>
       <c r="K42" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>285.7627596518972</v>
+        <v>252.8135266236212</v>
       </c>
       <c r="M42" t="n">
         <v>378.678393487941</v>
@@ -37876,7 +37876,7 @@
         <v>316.2959939867617</v>
       </c>
       <c r="P42" t="n">
-        <v>35.87959908660021</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
         <v>91.45371493151266</v>
@@ -38025,7 +38025,7 @@
         <v>274.3746085046434</v>
       </c>
       <c r="M44" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N44" t="n">
         <v>332.9626517459645</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>285.7627596518972</v>
+        <v>252.8135266236212</v>
       </c>
       <c r="M45" t="n">
         <v>378.678393487941</v>
@@ -38116,7 +38116,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.50448190323682</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
